--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value1427.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value1427.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.747462044807651</v>
+        <v>0.5489456653594971</v>
       </c>
       <c r="B1">
-        <v>2.036289053929159</v>
+        <v>2.372661590576172</v>
       </c>
       <c r="C1">
-        <v>2.06517024979054</v>
+        <v>6.196498870849609</v>
       </c>
       <c r="D1">
-        <v>2.609543836138452</v>
+        <v>1.746636390686035</v>
       </c>
       <c r="E1">
-        <v>3.002292830400931</v>
+        <v>1.034395217895508</v>
       </c>
     </row>
   </sheetData>
